--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATAICC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118226B-B414-4974-B388-460E5FCA81EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFF23B-7DF6-4A11-B89A-5CF215BC9B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -414,9 +414,6 @@
     <t>Excel Cambios en Precipitación Global 1901-2015</t>
   </si>
   <si>
-    <t>https://www.nodc.noaa.gov/oads/stewardship/data_portal.html</t>
-  </si>
-  <si>
     <t>Excel acidez del océano</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   </si>
   <si>
     <t>Emisiones Absolutas Anuales de CO2 por importación y exportación</t>
+  </si>
+  <si>
+    <t>European Environment Agency</t>
   </si>
 </sst>
 </file>
@@ -3572,8 +3572,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3628,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>93</v>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N7" s="34" t="s">
         <v>104</v>
@@ -4278,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N30">
         <v>7</v>
@@ -4557,8 +4557,8 @@
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="44" t="s">
-        <v>127</v>
+      <c r="F44" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>79</v>
@@ -4613,11 +4613,10 @@
     <hyperlink ref="F42" r:id="rId12" xr:uid="{2DDA8D71-BA63-4F8B-8A90-C71D3C6DD4DE}"/>
     <hyperlink ref="H38" r:id="rId13" xr:uid="{D9FB8EF5-3C0C-4BA3-9D1C-38AED35A8194}"/>
     <hyperlink ref="F38" r:id="rId14" xr:uid="{196F8399-838D-4E82-BC1D-24B11E8FEEA4}"/>
-    <hyperlink ref="F44" r:id="rId15" xr:uid="{9B2E016F-D499-4E4D-BE50-A263EE463A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
-  <drawing r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -4809,7 +4808,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4825,8 +4824,8 @@
   </sheetPr>
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,7 +4842,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="65" t="s">
         <v>44</v>
@@ -4858,28 +4857,28 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="G3" s="69" t="s">
         <v>135</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>136</v>
       </c>
       <c r="J3" s="70" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="S3" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="71" t="s">
+      <c r="V3" s="74" t="s">
         <v>139</v>
-      </c>
-      <c r="V3" s="74" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4926,23 +4925,23 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4950,66 +4949,66 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DFF23B-7DF6-4A11-B89A-5CF215BC9B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618B23B-4E96-4575-A4CA-DFF5EA8522F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
   <si>
     <t>Dirección Meteorológica de Chile</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>https://nsidc.org/</t>
-  </si>
-  <si>
-    <t>https://www.nodc.noaa.gov/oads/stewardship/data_portal.html?subpred=oads&amp;varpred=any&amp;geovars=pH&amp;from=1990-01-01&amp;to=2020-08-23&amp;term=*Global*&amp;obscat=Any&amp;westbc=-180&amp;northbc=90&amp;southbc=-90&amp;eastbc=180</t>
   </si>
   <si>
     <t>Fuente</t>
@@ -3572,8 +3569,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,7 +3592,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -3628,7 +3625,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -3651,20 +3648,20 @@
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3697,14 +3694,14 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>14</v>
@@ -3730,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>15</v>
@@ -3749,12 +3746,12 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K8" s="58"/>
       <c r="L8" s="15"/>
       <c r="N8" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>15</v>
@@ -3780,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -3802,7 +3799,7 @@
       <c r="K9" s="58"/>
       <c r="L9" s="15"/>
       <c r="N9" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>16</v>
@@ -3822,7 +3819,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
@@ -3841,12 +3838,12 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="61"/>
       <c r="N10" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>17</v>
@@ -3866,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
@@ -3888,7 +3885,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="15"/>
       <c r="N11" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>18</v>
@@ -3908,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>19</v>
@@ -3927,12 +3924,12 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="58"/>
       <c r="L12" s="15"/>
       <c r="N12" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>19</v>
@@ -3969,7 +3966,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13" s="58"/>
       <c r="L13" s="15"/>
@@ -3998,7 +3995,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" s="58"/>
       <c r="L14" s="15"/>
@@ -4061,14 +4058,14 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>38</v>
@@ -4103,25 +4100,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -4131,19 +4128,19 @@
         <v>1</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -4151,31 +4148,31 @@
         <v>2</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
       <c r="S25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -4183,25 +4180,25 @@
         <v>3</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
       <c r="O26" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P26">
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -4209,19 +4206,19 @@
         <v>4</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
       <c r="O27" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -4229,22 +4226,22 @@
         <v>5</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>5</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -4252,19 +4249,19 @@
         <v>6</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N29">
         <v>6</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -4272,19 +4269,19 @@
         <v>7</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
       <c r="O30" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -4292,19 +4289,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N31">
         <v>8</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -4312,19 +4309,19 @@
         <v>9</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4332,13 +4329,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -4346,13 +4343,13 @@
         <v>11</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>11</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -4360,29 +4357,29 @@
     </row>
     <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
       <c r="L36" s="43"/>
       <c r="O36" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -4395,43 +4392,43 @@
         <v>1</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="44" t="s">
         <v>76</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>77</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -4439,37 +4436,37 @@
         <v>8</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N39">
         <v>2</v>
       </c>
       <c r="O39" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P39">
         <v>2</v>
       </c>
       <c r="Q39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R39">
         <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -4477,32 +4474,32 @@
         <v>9</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
       <c r="O40" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -4510,7 +4507,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -4519,10 +4516,10 @@
         <v>40</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4530,16 +4527,14 @@
         <v>11</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="50" t="s">
-        <v>41</v>
-      </c>
+      <c r="F42" s="50"/>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -4547,10 +4542,10 @@
         <v>6</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -4558,10 +4553,10 @@
         <v>7</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -4569,7 +4564,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -4577,7 +4572,7 @@
         <v>9</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -4585,7 +4580,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -4593,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4610,13 +4605,12 @@
     <hyperlink ref="H39" r:id="rId9" display="http://www.fao.org/fileadmin/user_upload/AGRO_Noticias/docs/costo adaptacion.pdf" xr:uid="{E2844F17-617C-4960-B9D9-642C759DE9D3}"/>
     <hyperlink ref="F48" r:id="rId10" xr:uid="{E77F0FF7-5799-4125-B68A-A01E626291AF}"/>
     <hyperlink ref="F41" r:id="rId11" xr:uid="{90D03C88-F7F7-4510-A9B3-C46FFEADE2E3}"/>
-    <hyperlink ref="F42" r:id="rId12" xr:uid="{2DDA8D71-BA63-4F8B-8A90-C71D3C6DD4DE}"/>
-    <hyperlink ref="H38" r:id="rId13" xr:uid="{D9FB8EF5-3C0C-4BA3-9D1C-38AED35A8194}"/>
-    <hyperlink ref="F38" r:id="rId14" xr:uid="{196F8399-838D-4E82-BC1D-24B11E8FEEA4}"/>
+    <hyperlink ref="H38" r:id="rId12" xr:uid="{D9FB8EF5-3C0C-4BA3-9D1C-38AED35A8194}"/>
+    <hyperlink ref="F38" r:id="rId13" xr:uid="{196F8399-838D-4E82-BC1D-24B11E8FEEA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -4652,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -4767,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
@@ -4799,16 +4793,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4824,8 +4818,8 @@
   </sheetPr>
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4842,10 +4836,10 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
@@ -4857,28 +4851,28 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="G3" s="69" t="s">
         <v>134</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>135</v>
       </c>
       <c r="J3" s="70" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="S3" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="71" t="s">
+      <c r="V3" s="74" t="s">
         <v>138</v>
-      </c>
-      <c r="V3" s="74" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4925,23 +4919,23 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
         <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4949,66 +4943,66 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
         <v>145</v>
-      </c>
-      <c r="B5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
         <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5046,27 +5040,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7618B23B-4E96-4575-A4CA-DFF5EA8522F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841248B8-DEAD-4662-BEBA-09ABF22B31EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841248B8-DEAD-4662-BEBA-09ABF22B31EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C1E6B-50DB-4D9F-84FD-7CEF29E23B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>Excel Variacion Temperatura del Mar en Celsius Global 1880-2019</t>
   </si>
   <si>
-    <t>https://earthobservatory.nasa.gov/global-maps/MYD28M</t>
-  </si>
-  <si>
     <t>Our World In Data</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>1-7</t>
   </si>
   <si>
-    <t>Animación Cambio de T° del Océano</t>
-  </si>
-  <si>
     <t>NY Times</t>
   </si>
   <si>
@@ -496,6 +490,12 @@
   </si>
   <si>
     <t>European Environment Agency</t>
+  </si>
+  <si>
+    <t>https://oceanexplorer.noaa.gov/facts/climate.html#:~:text=Ocean%20currents%20act%20much%20like,solar%20radiation%20reaching%20Earth's%20surface.</t>
+  </si>
+  <si>
+    <t>Imagen de Corrientes Oceánicas</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -880,9 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,6 +949,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3569,8 +3574,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,24 +3589,24 @@
     <col min="10" max="10" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="53"/>
+    <col min="13" max="13" width="11.42578125" style="52"/>
     <col min="15" max="15" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3625,7 +3630,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -3646,22 +3651,22 @@
       <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="62" t="s">
-        <v>128</v>
+      <c r="I5" s="42"/>
+      <c r="J5" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="61" t="s">
+        <v>126</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3671,7 +3676,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="34">
@@ -3694,14 +3699,14 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="58"/>
+        <v>109</v>
+      </c>
+      <c r="K7" s="57"/>
       <c r="L7" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>14</v>
@@ -3723,11 +3728,11 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="76" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>15</v>
@@ -3746,12 +3751,12 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="58"/>
+        <v>110</v>
+      </c>
+      <c r="K8" s="57"/>
       <c r="L8" s="15"/>
       <c r="N8" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>15</v>
@@ -3773,11 +3778,11 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>16</v>
@@ -3796,10 +3801,10 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="58"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="15"/>
       <c r="N9" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>16</v>
@@ -3815,11 +3820,11 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="76" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>17</v>
@@ -3837,13 +3842,13 @@
         <v>28</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="61"/>
+      <c r="J10" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="60"/>
       <c r="N10" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>17</v>
@@ -3859,11 +3864,11 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
@@ -3882,10 +3887,10 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="58"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="15"/>
       <c r="N11" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>18</v>
@@ -3901,11 +3906,11 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>19</v>
@@ -3924,12 +3929,12 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="58"/>
+        <v>112</v>
+      </c>
+      <c r="K12" s="57"/>
       <c r="L12" s="15"/>
       <c r="N12" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>19</v>
@@ -3948,7 +3953,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
@@ -3966,9 +3971,9 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="58"/>
+        <v>113</v>
+      </c>
+      <c r="K13" s="57"/>
       <c r="L13" s="15"/>
       <c r="Q13" s="11" t="s">
         <v>31</v>
@@ -3995,9 +4000,9 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="58"/>
+        <v>114</v>
+      </c>
+      <c r="K14" s="57"/>
       <c r="L14" s="15"/>
       <c r="Q14" s="11" t="s">
         <v>32</v>
@@ -4010,7 +4015,7 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="76" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="23"/>
@@ -4028,7 +4033,7 @@
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="77" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4036,7 +4041,7 @@
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="77" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4058,7 +4063,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -4076,10 +4081,10 @@
       <c r="H22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
       <c r="O22" s="6" t="s">
         <v>38</v>
       </c>
@@ -4091,7 +4096,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
+      <c r="B23" s="42"/>
       <c r="D23" s="4"/>
       <c r="F23" s="4"/>
     </row>
@@ -4099,26 +4104,26 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>89</v>
+      <c r="B24" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="53" t="s">
         <v>45</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="46" t="s">
         <v>61</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -4127,112 +4132,112 @@
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" s="42" t="s">
-        <v>94</v>
+      <c r="O24" s="41" t="s">
+        <v>92</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>46</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="46" t="s">
         <v>62</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
-      <c r="O25" s="42" t="s">
-        <v>95</v>
+      <c r="O25" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
       <c r="S25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="42" t="s">
-        <v>80</v>
+      <c r="F26" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
-      <c r="O26" s="42" t="s">
-        <v>96</v>
+      <c r="O26" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="P26">
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" s="48" t="s">
-        <v>85</v>
+      <c r="F27" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
-      <c r="O27" s="54" t="s">
-        <v>97</v>
+      <c r="O27" s="53" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="41" t="s">
         <v>49</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" s="48" t="s">
-        <v>85</v>
+      <c r="F28" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -4240,116 +4245,116 @@
       <c r="N28">
         <v>5</v>
       </c>
-      <c r="O28" s="42" t="s">
-        <v>98</v>
+      <c r="O28" s="41" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>83</v>
+      <c r="F29" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="N29">
         <v>6</v>
       </c>
-      <c r="O29" s="42" t="s">
-        <v>99</v>
+      <c r="O29" s="41" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>51</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="42" t="s">
-        <v>126</v>
+      <c r="F30" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
-      <c r="O30" s="42" t="s">
-        <v>100</v>
+      <c r="O30" s="41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="42" t="s">
-        <v>73</v>
+      <c r="D31" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="42" t="s">
-        <v>125</v>
+      <c r="F31" s="41" t="s">
+        <v>123</v>
       </c>
       <c r="N31">
         <v>8</v>
       </c>
-      <c r="O31" s="42" t="s">
-        <v>101</v>
+      <c r="O31" s="41" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>9</v>
       </c>
-      <c r="D32" s="42" t="s">
-        <v>74</v>
+      <c r="D32" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="42" t="s">
-        <v>86</v>
+      <c r="F32" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
-      <c r="O32" s="42" t="s">
-        <v>102</v>
+      <c r="O32" s="41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33" s="45" t="s">
-        <v>72</v>
+      <c r="D33" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
-      <c r="F33" s="48" t="s">
-        <v>85</v>
+      <c r="F33" s="47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>11</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>70</v>
+      <c r="D34" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="E34">
         <v>11</v>
       </c>
-      <c r="F34" s="49" t="s">
-        <v>88</v>
+      <c r="F34" s="48" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -4357,29 +4362,29 @@
     </row>
     <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
+        <v>64</v>
+      </c>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
       <c r="O36" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -4391,148 +4396,148 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="78" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" s="42" t="s">
-        <v>64</v>
+      <c r="O38" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>8</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="78" t="s">
         <v>54</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="44" t="s">
-        <v>79</v>
+      <c r="F39" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N39">
         <v>2</v>
       </c>
-      <c r="O39" s="42" t="s">
-        <v>93</v>
+      <c r="O39" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="P39">
         <v>2</v>
       </c>
       <c r="Q39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R39">
         <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>9</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="43" t="s">
         <v>55</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="44" t="s">
-        <v>81</v>
+      <c r="F40" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="53" t="s">
+      <c r="M40" s="52" t="s">
         <v>44</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
-      <c r="O40" s="42" t="s">
-        <v>93</v>
+      <c r="O40" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>71</v>
+      <c r="D41" s="79" t="s">
+        <v>69</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="49" t="s">
         <v>40</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="O41" s="42" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+      <c r="O41" s="41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" s="44" t="s">
-        <v>63</v>
+      <c r="D42" s="78" t="s">
+        <v>153</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="50"/>
+      <c r="F42" s="49"/>
       <c r="G42" t="s">
         <v>44</v>
       </c>
@@ -4541,54 +4546,54 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" s="42" t="s">
-        <v>84</v>
+      <c r="F43" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="45" t="s">
-        <v>154</v>
+      <c r="F44" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" s="45" t="s">
-        <v>64</v>
+      <c r="F45" s="44" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>9</v>
       </c>
-      <c r="F46" s="45" t="s">
-        <v>64</v>
+      <c r="F46" s="44" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>10</v>
       </c>
-      <c r="F47" s="48" t="s">
-        <v>85</v>
+      <c r="F47" s="47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>11</v>
       </c>
-      <c r="F48" s="50" t="s">
-        <v>87</v>
+      <c r="F48" s="49" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4597,20 +4602,19 @@
     <hyperlink ref="B38" r:id="rId1" xr:uid="{9914FBEC-F203-4294-8E6D-9E25B96306F4}"/>
     <hyperlink ref="D39" r:id="rId2" xr:uid="{F6E9B19A-B2DA-4EFE-A0BA-CAC4819F6AF4}"/>
     <hyperlink ref="D40" r:id="rId3" xr:uid="{A6768832-B374-4254-9F2E-150BECFCE48E}"/>
-    <hyperlink ref="D42" r:id="rId4" xr:uid="{DDFF38AC-BA99-44F4-97AE-342AC040C90D}"/>
-    <hyperlink ref="Q43" r:id="rId5" xr:uid="{E9263AE1-ED1F-4FFD-BED6-C789978B4719}"/>
-    <hyperlink ref="Q44" r:id="rId6" xr:uid="{982DE4A9-1E4A-47A8-948E-3DAF15850069}"/>
-    <hyperlink ref="F39" r:id="rId7" xr:uid="{53D09B8E-BD30-4DAD-AF2E-877002544FEA}"/>
-    <hyperlink ref="F40" r:id="rId8" xr:uid="{2BF8403D-09A2-488B-8398-2C17FC6F615A}"/>
-    <hyperlink ref="H39" r:id="rId9" display="http://www.fao.org/fileadmin/user_upload/AGRO_Noticias/docs/costo adaptacion.pdf" xr:uid="{E2844F17-617C-4960-B9D9-642C759DE9D3}"/>
-    <hyperlink ref="F48" r:id="rId10" xr:uid="{E77F0FF7-5799-4125-B68A-A01E626291AF}"/>
-    <hyperlink ref="F41" r:id="rId11" xr:uid="{90D03C88-F7F7-4510-A9B3-C46FFEADE2E3}"/>
-    <hyperlink ref="H38" r:id="rId12" xr:uid="{D9FB8EF5-3C0C-4BA3-9D1C-38AED35A8194}"/>
-    <hyperlink ref="F38" r:id="rId13" xr:uid="{196F8399-838D-4E82-BC1D-24B11E8FEEA4}"/>
+    <hyperlink ref="Q43" r:id="rId4" xr:uid="{E9263AE1-ED1F-4FFD-BED6-C789978B4719}"/>
+    <hyperlink ref="Q44" r:id="rId5" xr:uid="{982DE4A9-1E4A-47A8-948E-3DAF15850069}"/>
+    <hyperlink ref="F39" r:id="rId6" xr:uid="{53D09B8E-BD30-4DAD-AF2E-877002544FEA}"/>
+    <hyperlink ref="F40" r:id="rId7" xr:uid="{2BF8403D-09A2-488B-8398-2C17FC6F615A}"/>
+    <hyperlink ref="H39" r:id="rId8" display="http://www.fao.org/fileadmin/user_upload/AGRO_Noticias/docs/costo adaptacion.pdf" xr:uid="{E2844F17-617C-4960-B9D9-642C759DE9D3}"/>
+    <hyperlink ref="F48" r:id="rId9" xr:uid="{E77F0FF7-5799-4125-B68A-A01E626291AF}"/>
+    <hyperlink ref="F41" r:id="rId10" xr:uid="{90D03C88-F7F7-4510-A9B3-C46FFEADE2E3}"/>
+    <hyperlink ref="H38" r:id="rId11" xr:uid="{D9FB8EF5-3C0C-4BA3-9D1C-38AED35A8194}"/>
+    <hyperlink ref="F38" r:id="rId12" xr:uid="{196F8399-838D-4E82-BC1D-24B11E8FEEA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -4760,12 +4764,12 @@
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -4802,7 +4806,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4836,43 +4840,43 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="J3" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="P3" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="73" t="s">
+      <c r="S3" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="V3" s="73" t="s">
         <v>136</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" s="74" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4918,24 +4922,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>139</v>
+      <c r="A1" s="74" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4943,66 +4947,66 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C1E6B-50DB-4D9F-84FD-7CEF29E23B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430541DD-3F15-4F8E-8F68-52AAE91FC0E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -784,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -957,6 +957,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3574,8 +3575,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4025,7 +4026,7 @@
       <c r="C16">
         <v>9</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="76" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4104,7 +4105,7 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="79" t="s">
         <v>87</v>
       </c>
       <c r="C24" s="29">
@@ -4230,7 +4231,7 @@
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="79" t="s">
         <v>49</v>
       </c>
       <c r="E28">
@@ -4253,7 +4254,7 @@
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="79" t="s">
         <v>50</v>
       </c>
       <c r="E29">
@@ -4273,7 +4274,7 @@
       <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="79" t="s">
         <v>51</v>
       </c>
       <c r="E30">
@@ -4293,7 +4294,7 @@
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="79" t="s">
         <v>71</v>
       </c>
       <c r="E31">
@@ -4313,7 +4314,7 @@
       <c r="C32">
         <v>9</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="79" t="s">
         <v>72</v>
       </c>
       <c r="E32">
@@ -4333,7 +4334,7 @@
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="80" t="s">
         <v>70</v>
       </c>
       <c r="E33">
@@ -4347,7 +4348,7 @@
       <c r="C34">
         <v>11</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="80" t="s">
         <v>154</v>
       </c>
       <c r="E34">
@@ -4478,7 +4479,7 @@
       <c r="C40" s="38">
         <v>9</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="78" t="s">
         <v>55</v>
       </c>
       <c r="E40">

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430541DD-3F15-4F8E-8F68-52AAE91FC0E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649CF0CF-58A1-4E6D-A4B9-683EE18351FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -3575,8 +3575,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +4185,7 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="79" t="s">
         <v>47</v>
       </c>
       <c r="E26">
@@ -4211,7 +4211,7 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="79" t="s">
         <v>48</v>
       </c>
       <c r="E27">

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649CF0CF-58A1-4E6D-A4B9-683EE18351FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED5A7B-9823-48A8-AC03-B24752A3D098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
   <si>
     <t>Dirección Meteorológica de Chile</t>
   </si>
@@ -496,6 +496,28 @@
   </si>
   <si>
     <t>Imagen de Corrientes Oceánicas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -784,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -958,6 +980,7 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3575,8 +3598,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,7 +4134,7 @@
       <c r="C24" s="29">
         <v>1</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="79" t="s">
         <v>45</v>
       </c>
       <c r="E24">
@@ -4150,10 +4173,10 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="81" t="s">
         <v>46</v>
       </c>
       <c r="E25">
@@ -4403,7 +4426,7 @@
       <c r="C38" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="79" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="35" t="s">

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED5A7B-9823-48A8-AC03-B24752A3D098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBD274-6BF2-4FB6-A3E0-55BD845DFE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="158">
   <si>
     <t>Dirección Meteorológica de Chile</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Excel Variación Nivel del Mar en mm 1992-2020</t>
-  </si>
-  <si>
-    <t>NOAA</t>
   </si>
   <si>
     <t>Pendiente</t>
@@ -518,6 +515,15 @@
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
+  </si>
+  <si>
+    <t>Excel Variación Hielo Marino Ártico</t>
+  </si>
+  <si>
+    <t>https://www.epdata.es/datos/cambio-climatico-datos-graficos/447</t>
+  </si>
+  <si>
+    <t>http://www.star.nesdis.noaa.gov/sod/lsa/SeaLevelRise/) and Radar Altimeter Database System (http://www.deos.tudelft.nl/altim/rads/</t>
   </si>
 </sst>
 </file>
@@ -806,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -896,9 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,7 +914,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -981,6 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3598,8 +3601,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,24 +3616,24 @@
     <col min="10" max="10" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="52"/>
+    <col min="13" max="13" width="11.42578125" style="50"/>
     <col min="15" max="15" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3654,7 +3657,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -3675,22 +3678,22 @@
       <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="61" t="s">
-        <v>126</v>
+      <c r="I5" s="41"/>
+      <c r="J5" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="59" t="s">
+        <v>125</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3700,7 +3703,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="74" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="34">
@@ -3712,7 +3715,7 @@
       <c r="E7">
         <v>1.2</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="74" t="s">
         <v>25</v>
       </c>
       <c r="G7">
@@ -3723,14 +3726,14 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="57"/>
+        <v>108</v>
+      </c>
+      <c r="K7" s="55"/>
       <c r="L7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>14</v>
@@ -3752,19 +3755,19 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="74" t="s">
         <v>15</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="74" t="s">
         <v>26</v>
       </c>
       <c r="G8">
@@ -3775,12 +3778,12 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="57"/>
+        <v>109</v>
+      </c>
+      <c r="K8" s="55"/>
       <c r="L8" s="15"/>
       <c r="N8" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>15</v>
@@ -3802,19 +3805,19 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="74" t="s">
         <v>16</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="74" t="s">
         <v>27</v>
       </c>
       <c r="G9">
@@ -3825,10 +3828,10 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="57"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="15"/>
       <c r="N9" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>16</v>
@@ -3844,19 +3847,19 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="74" t="s">
         <v>17</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="74" t="s">
         <v>28</v>
       </c>
       <c r="G10">
@@ -3866,13 +3869,13 @@
         <v>28</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="60"/>
+      <c r="J10" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="58"/>
       <c r="N10" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>17</v>
@@ -3888,19 +3891,19 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="74" t="s">
         <v>18</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="74" t="s">
         <v>29</v>
       </c>
       <c r="G11">
@@ -3911,10 +3914,10 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="57"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="15"/>
       <c r="N11" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>18</v>
@@ -3930,13 +3933,13 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="E12">
@@ -3953,12 +3956,12 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="57"/>
+        <v>111</v>
+      </c>
+      <c r="K12" s="55"/>
       <c r="L12" s="15"/>
       <c r="N12" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>19</v>
@@ -3977,7 +3980,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="74" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
@@ -3995,9 +3998,9 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="57"/>
+        <v>112</v>
+      </c>
+      <c r="K13" s="55"/>
       <c r="L13" s="15"/>
       <c r="Q13" s="11" t="s">
         <v>31</v>
@@ -4013,7 +4016,7 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G14">
@@ -4024,9 +4027,9 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="57"/>
+        <v>113</v>
+      </c>
+      <c r="K14" s="55"/>
       <c r="L14" s="15"/>
       <c r="Q14" s="11" t="s">
         <v>32</v>
@@ -4039,7 +4042,7 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="74" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="23"/>
@@ -4049,7 +4052,7 @@
       <c r="C16">
         <v>9</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="74" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4057,7 +4060,7 @@
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="75" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4065,7 +4068,7 @@
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="75" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4087,7 +4090,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -4105,10 +4108,10 @@
       <c r="H22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
       <c r="O22" s="6" t="s">
         <v>38</v>
       </c>
@@ -4120,7 +4123,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
+      <c r="B23" s="41"/>
       <c r="D23" s="4"/>
       <c r="F23" s="4"/>
     </row>
@@ -4128,26 +4131,26 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>87</v>
+      <c r="B24" s="77" t="s">
+        <v>86</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="77" t="s">
         <v>45</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="80" t="s">
         <v>61</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -4156,112 +4159,112 @@
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" s="41" t="s">
-        <v>92</v>
+      <c r="O24" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C25" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="79" t="s">
         <v>46</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="80" t="s">
         <v>62</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
-      <c r="O25" s="41" t="s">
-        <v>93</v>
+      <c r="O25" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
       <c r="S25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="77" t="s">
         <v>47</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="40" t="s">
         <v>78</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
-      <c r="O26" s="41" t="s">
-        <v>94</v>
+      <c r="O26" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="P26">
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="77" t="s">
         <v>48</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>83</v>
+      <c r="F27" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
-      <c r="O27" s="53" t="s">
-        <v>95</v>
+      <c r="O27" s="51" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="77" t="s">
         <v>49</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>83</v>
+      <c r="F28" s="77" t="s">
+        <v>155</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -4269,116 +4272,116 @@
       <c r="N28">
         <v>5</v>
       </c>
-      <c r="O28" s="41" t="s">
-        <v>96</v>
+      <c r="O28" s="40" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="77" t="s">
         <v>50</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="77" t="s">
         <v>81</v>
       </c>
       <c r="N29">
         <v>6</v>
       </c>
-      <c r="O29" s="41" t="s">
-        <v>97</v>
+      <c r="O29" s="40" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="41" t="s">
-        <v>124</v>
+      <c r="F30" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
-      <c r="O30" s="41" t="s">
-        <v>98</v>
+      <c r="O30" s="40" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="77" t="s">
         <v>71</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="41" t="s">
-        <v>123</v>
+      <c r="F31" s="77" t="s">
+        <v>122</v>
       </c>
       <c r="N31">
         <v>8</v>
       </c>
-      <c r="O31" s="41" t="s">
-        <v>99</v>
+      <c r="O31" s="40" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>9</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="77" t="s">
         <v>72</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="41" t="s">
-        <v>84</v>
+      <c r="F32" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
-      <c r="O32" s="41" t="s">
-        <v>100</v>
+      <c r="O32" s="40" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
-      <c r="F33" s="47" t="s">
-        <v>83</v>
+      <c r="F33" s="45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>11</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>154</v>
+      <c r="D34" s="78" t="s">
+        <v>153</v>
       </c>
       <c r="E34">
         <v>11</v>
       </c>
-      <c r="F34" s="48" t="s">
-        <v>86</v>
+      <c r="F34" s="46" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -4388,7 +4391,7 @@
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="44" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -4397,10 +4400,10 @@
       <c r="H36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
       <c r="O36" s="6" t="s">
         <v>64</v>
       </c>
@@ -4420,57 +4423,57 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="76" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="77" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="76" t="s">
         <v>74</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" s="41" t="s">
+      <c r="O38" s="40" t="s">
         <v>63</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>8</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="76" t="s">
         <v>54</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="42" t="s">
         <v>77</v>
       </c>
       <c r="G39">
@@ -4482,72 +4485,72 @@
       <c r="N39">
         <v>2</v>
       </c>
-      <c r="O39" s="41" t="s">
-        <v>91</v>
+      <c r="O39" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="P39">
         <v>2</v>
       </c>
       <c r="Q39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R39">
         <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>9</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="76" t="s">
         <v>55</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="42" t="s">
         <v>79</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="52" t="s">
+      <c r="M40" s="50" t="s">
         <v>44</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
-      <c r="O40" s="41" t="s">
-        <v>91</v>
+      <c r="O40" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="77" t="s">
         <v>69</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="47" t="s">
         <v>40</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O41" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="40" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4555,13 +4558,15 @@
       <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" s="78" t="s">
-        <v>153</v>
+      <c r="D42" s="76" t="s">
+        <v>152</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="49"/>
+      <c r="F42" s="76" t="s">
+        <v>156</v>
+      </c>
       <c r="G42" t="s">
         <v>44</v>
       </c>
@@ -4570,8 +4575,8 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>82</v>
+      <c r="F43" s="76" t="s">
+        <v>157</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>75</v>
@@ -4581,8 +4586,8 @@
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="44" t="s">
-        <v>152</v>
+      <c r="F44" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>76</v>
@@ -4592,7 +4597,7 @@
       <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="78" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4600,7 +4605,7 @@
       <c r="E46">
         <v>9</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="43" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4608,16 +4613,16 @@
       <c r="E47">
         <v>10</v>
       </c>
-      <c r="F47" s="47" t="s">
-        <v>83</v>
+      <c r="F47" s="45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>11</v>
       </c>
-      <c r="F48" s="49" t="s">
-        <v>85</v>
+      <c r="F48" s="47" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4635,10 +4640,12 @@
     <hyperlink ref="F41" r:id="rId10" xr:uid="{90D03C88-F7F7-4510-A9B3-C46FFEADE2E3}"/>
     <hyperlink ref="H38" r:id="rId11" xr:uid="{D9FB8EF5-3C0C-4BA3-9D1C-38AED35A8194}"/>
     <hyperlink ref="F38" r:id="rId12" xr:uid="{196F8399-838D-4E82-BC1D-24B11E8FEEA4}"/>
+    <hyperlink ref="F43" r:id="rId13" xr:uid="{3BAAB445-EE13-4250-BE72-9E6A9A77B191}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{188140E4-42DD-4DEC-80B9-EB428A145CBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-  <drawing r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -4788,12 +4795,12 @@
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -4830,7 +4837,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4864,43 +4871,43 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="G3" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="J3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="72" t="s">
+      <c r="P3" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="71" t="s">
+      <c r="S3" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="70" t="s">
+      <c r="V3" s="71" t="s">
         <v>135</v>
-      </c>
-      <c r="V3" s="73" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4946,24 +4953,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>137</v>
+      <c r="A1" s="72" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4971,66 +4978,66 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBD274-6BF2-4FB6-A3E0-55BD845DFE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BC7D44-C033-4C47-94A8-2DD41B09AD88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
   <si>
     <t>Dirección Meteorológica de Chile</t>
   </si>
@@ -267,9 +267,6 @@
     <t>https://advances.sciencemag.org/content/5/9/eaau2406</t>
   </si>
   <si>
-    <t>Estudio efecto CC en producción de trigo mundial</t>
-  </si>
-  <si>
     <t>https://www.elagoradiario.com/clima-y-energia/trigo-sequias-cambio-climatico/</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>https://ourworldindata.org/crop-yields</t>
   </si>
   <si>
-    <t>Excels de Rendimientos de cultivos hasta 1961-2018</t>
-  </si>
-  <si>
     <t>Guía de Apoyo Docente en Cambio Climático</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
   </si>
   <si>
     <t>Emisiones Absolutas Anuales de CO2 por importación y exportación</t>
-  </si>
-  <si>
-    <t>European Environment Agency</t>
   </si>
   <si>
     <t>https://oceanexplorer.noaa.gov/facts/climate.html#:~:text=Ocean%20currents%20act%20much%20like,solar%20radiation%20reaching%20Earth's%20surface.</t>
@@ -524,6 +515,18 @@
   </si>
   <si>
     <t>http://www.star.nesdis.noaa.gov/sod/lsa/SeaLevelRise/) and Radar Altimeter Database System (http://www.deos.tudelft.nl/altim/rads/</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/data-and-maps/indicators/ocean-acidification-3/assessment</t>
+  </si>
+  <si>
+    <t>Excel Producción, Rendimiento y Uso de Tierra de Cereales 1961-2018</t>
+  </si>
+  <si>
+    <t>Excel Variación Precio Commodities 1850-2015</t>
+  </si>
+  <si>
+    <t>3,4,11</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -915,7 +918,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
@@ -3601,8 +3603,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,24 +3618,24 @@
     <col min="10" max="10" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="50"/>
+    <col min="13" max="13" width="11.42578125" style="49"/>
     <col min="15" max="15" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3657,7 +3659,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -3679,21 +3681,21 @@
         <v>37</v>
       </c>
       <c r="I5" s="41"/>
-      <c r="J5" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="59" t="s">
-        <v>125</v>
+      <c r="J5" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="53"/>
+      <c r="L5" s="58" t="s">
+        <v>123</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3703,7 +3705,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="34">
@@ -3715,7 +3717,7 @@
       <c r="E7">
         <v>1.2</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>25</v>
       </c>
       <c r="G7">
@@ -3726,14 +3728,14 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="55"/>
+        <v>106</v>
+      </c>
+      <c r="K7" s="54"/>
       <c r="L7" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>14</v>
@@ -3755,19 +3757,19 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>15</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="73" t="s">
         <v>26</v>
       </c>
       <c r="G8">
@@ -3778,12 +3780,12 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="K8" s="54"/>
       <c r="L8" s="15"/>
       <c r="N8" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>15</v>
@@ -3805,19 +3807,19 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>16</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="73" t="s">
         <v>27</v>
       </c>
       <c r="G9">
@@ -3828,10 +3830,10 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="55"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="15"/>
       <c r="N9" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>16</v>
@@ -3847,19 +3849,19 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>17</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="73" t="s">
         <v>28</v>
       </c>
       <c r="G10">
@@ -3869,13 +3871,13 @@
         <v>28</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="58"/>
+      <c r="J10" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="55"/>
+      <c r="L10" s="57"/>
       <c r="N10" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>17</v>
@@ -3891,19 +3893,19 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="73" t="s">
         <v>18</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
         <v>29</v>
       </c>
       <c r="G11">
@@ -3914,10 +3916,10 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="15"/>
       <c r="N11" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>18</v>
@@ -3933,19 +3935,19 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
-        <v>3.5</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="73" t="s">
         <v>30</v>
       </c>
       <c r="G12">
@@ -3956,12 +3958,12 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="55"/>
+        <v>109</v>
+      </c>
+      <c r="K12" s="54"/>
       <c r="L12" s="15"/>
       <c r="N12" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>19</v>
@@ -3980,7 +3982,7 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
@@ -3998,9 +4000,9 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="55"/>
+        <v>110</v>
+      </c>
+      <c r="K13" s="54"/>
       <c r="L13" s="15"/>
       <c r="Q13" s="11" t="s">
         <v>31</v>
@@ -4027,9 +4029,9 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="55"/>
+        <v>111</v>
+      </c>
+      <c r="K14" s="54"/>
       <c r="L14" s="15"/>
       <c r="Q14" s="11" t="s">
         <v>32</v>
@@ -4042,7 +4044,7 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="73" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="23"/>
@@ -4052,7 +4054,7 @@
       <c r="C16">
         <v>9</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="73" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4060,7 +4062,7 @@
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="74" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4068,7 +4070,7 @@
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="74" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4090,7 +4092,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -4131,26 +4133,26 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="77" t="s">
-        <v>86</v>
+      <c r="B24" s="76" t="s">
+        <v>84</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="76" t="s">
         <v>45</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="79" t="s">
         <v>61</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
@@ -4160,111 +4162,111 @@
         <v>1</v>
       </c>
       <c r="O24" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C25" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="78" t="s">
         <v>46</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="79" t="s">
         <v>62</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R25">
         <v>2</v>
       </c>
       <c r="S25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="76" t="s">
         <v>47</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="40" t="s">
-        <v>78</v>
+      <c r="F26" s="76" t="s">
+        <v>156</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P26">
         <v>3</v>
       </c>
       <c r="Q26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="76" t="s">
         <v>48</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" s="45" t="s">
-        <v>82</v>
+      <c r="F27" s="76" t="s">
+        <v>157</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
-      <c r="O27" s="51" t="s">
-        <v>94</v>
+      <c r="O27" s="50" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="76" t="s">
         <v>49</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" s="77" t="s">
-        <v>155</v>
+      <c r="F28" s="76" t="s">
+        <v>152</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -4273,116 +4275,114 @@
         <v>5</v>
       </c>
       <c r="O28" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="76" t="s">
         <v>50</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="77" t="s">
-        <v>81</v>
+      <c r="F29" s="76" t="s">
+        <v>80</v>
       </c>
       <c r="N29">
         <v>6</v>
       </c>
       <c r="O29" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="76" t="s">
         <v>51</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="40" t="s">
-        <v>123</v>
+      <c r="F30" s="76" t="s">
+        <v>121</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
       <c r="O30" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="76" t="s">
         <v>71</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="77" t="s">
-        <v>122</v>
+      <c r="F31" s="76" t="s">
+        <v>120</v>
       </c>
       <c r="N31">
         <v>8</v>
       </c>
       <c r="O31" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>9</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="77" t="s">
         <v>70</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>11</v>
       </c>
-      <c r="D34" s="78" t="s">
-        <v>153</v>
+      <c r="D34" s="77" t="s">
+        <v>150</v>
       </c>
       <c r="E34">
         <v>11</v>
       </c>
-      <c r="F34" s="46" t="s">
-        <v>85</v>
-      </c>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D35" s="37"/>
@@ -4423,26 +4423,26 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="76" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="75" t="s">
         <v>74</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4454,20 +4454,20 @@
         <v>1</v>
       </c>
       <c r="Q38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>8</v>
       </c>
-      <c r="D39" s="76" t="s">
+      <c r="D39" s="75" t="s">
         <v>54</v>
       </c>
       <c r="E39">
@@ -4480,75 +4480,75 @@
         <v>2</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N39">
         <v>2</v>
       </c>
       <c r="O39" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P39">
         <v>2</v>
       </c>
       <c r="Q39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R39">
         <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>9</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="75" t="s">
         <v>55</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="50" t="s">
+      <c r="M40" s="49" t="s">
         <v>44</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
       <c r="O40" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="76" t="s">
         <v>69</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="46" t="s">
         <v>40</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O41" s="40" t="s">
         <v>63</v>
@@ -4558,14 +4558,14 @@
       <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" s="76" t="s">
-        <v>152</v>
+      <c r="D42" s="75" t="s">
+        <v>149</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="76" t="s">
-        <v>156</v>
+      <c r="F42" s="75" t="s">
+        <v>153</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4575,8 +4575,8 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" s="76" t="s">
-        <v>157</v>
+      <c r="F43" s="75" t="s">
+        <v>154</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>75</v>
@@ -4586,8 +4586,8 @@
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="43" t="s">
-        <v>151</v>
+      <c r="F44" s="75" t="s">
+        <v>155</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>76</v>
@@ -4597,7 +4597,7 @@
       <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="77" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4614,15 +4614,15 @@
         <v>10</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>11</v>
       </c>
-      <c r="F48" s="47" t="s">
-        <v>84</v>
+      <c r="F48" s="46" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4642,10 +4642,11 @@
     <hyperlink ref="F38" r:id="rId12" xr:uid="{196F8399-838D-4E82-BC1D-24B11E8FEEA4}"/>
     <hyperlink ref="F43" r:id="rId13" xr:uid="{3BAAB445-EE13-4250-BE72-9E6A9A77B191}"/>
     <hyperlink ref="F42" r:id="rId14" xr:uid="{188140E4-42DD-4DEC-80B9-EB428A145CBE}"/>
+    <hyperlink ref="F44" r:id="rId15" xr:uid="{E6F0B941-A682-476A-B6B1-EEA644F62CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -4795,12 +4796,12 @@
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -4837,7 +4838,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4871,43 +4872,43 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="J3" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="P3" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="70" t="s">
+      <c r="S3" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="V3" s="70" t="s">
         <v>133</v>
-      </c>
-      <c r="S3" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="V3" s="71" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4953,24 +4954,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>136</v>
+      <c r="A1" s="71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4978,66 +4979,66 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BC7D44-C033-4C47-94A8-2DD41B09AD88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF1BCA-DA82-4896-A95A-39C96770F47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>

--- a/DATAICC.xlsx
+++ b/DATAICC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF1BCA-DA82-4896-A95A-39C96770F47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D55A07-9ED2-48B6-8C34-2FEA8214FCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D77688E1-8E0C-4DE6-842D-CACD3BD74C1C}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="Otros links" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
   <si>
     <t>Dirección Meteorológica de Chile</t>
   </si>
@@ -527,6 +528,9 @@
   </si>
   <si>
     <t>3,4,11</t>
+  </si>
+  <si>
+    <t>Excels asociados a Contaminación del Aire</t>
   </si>
 </sst>
 </file>
@@ -815,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -904,9 +908,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3603,8 +3604,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,24 +3619,24 @@
     <col min="10" max="10" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="49"/>
+    <col min="13" max="13" width="11.42578125" style="48"/>
     <col min="15" max="15" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3680,12 +3681,12 @@
       <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="56" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="57" t="s">
         <v>123</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -3705,7 +3706,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="34">
@@ -3717,7 +3718,7 @@
       <c r="E7">
         <v>1.2</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="72" t="s">
         <v>25</v>
       </c>
       <c r="G7">
@@ -3730,7 +3731,7 @@
       <c r="J7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="54"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="11" t="s">
         <v>124</v>
       </c>
@@ -3757,19 +3758,19 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>15</v>
       </c>
       <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="72" t="s">
         <v>26</v>
       </c>
       <c r="G8">
@@ -3782,7 +3783,7 @@
       <c r="J8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="15"/>
       <c r="N8" s="34" t="s">
         <v>99</v>
@@ -3807,19 +3808,19 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>16</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>27</v>
       </c>
       <c r="G9">
@@ -3830,7 +3831,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="54"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="15"/>
       <c r="N9" s="34" t="s">
         <v>100</v>
@@ -3849,19 +3850,19 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>17</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>28</v>
       </c>
       <c r="G10">
@@ -3871,11 +3872,11 @@
         <v>28</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="57"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="56"/>
       <c r="N10" s="34" t="s">
         <v>99</v>
       </c>
@@ -3893,19 +3894,19 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="72" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>18</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="72" t="s">
         <v>29</v>
       </c>
       <c r="G11">
@@ -3916,7 +3917,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="54"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="15"/>
       <c r="N11" s="34" t="s">
         <v>99</v>
@@ -3935,19 +3936,19 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="72" t="s">
         <v>30</v>
       </c>
       <c r="G12">
@@ -3960,7 +3961,7 @@
       <c r="J12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="54"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="15"/>
       <c r="N12" s="34" t="s">
         <v>100</v>
@@ -3982,14 +3983,14 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="72" t="s">
         <v>31</v>
       </c>
       <c r="G13">
@@ -4002,7 +4003,7 @@
       <c r="J13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="54"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="15"/>
       <c r="Q13" s="11" t="s">
         <v>31</v>
@@ -4018,7 +4019,7 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="72" t="s">
         <v>32</v>
       </c>
       <c r="G14">
@@ -4031,7 +4032,7 @@
       <c r="J14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="54"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="15"/>
       <c r="Q14" s="11" t="s">
         <v>32</v>
@@ -4044,7 +4045,7 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="23"/>
@@ -4054,7 +4055,7 @@
       <c r="C16">
         <v>9</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4062,7 +4063,7 @@
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4070,7 +4071,7 @@
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="73" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4110,10 +4111,10 @@
       <c r="H22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
       <c r="O22" s="6" t="s">
         <v>38</v>
       </c>
@@ -4125,7 +4126,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
+      <c r="B23" s="40"/>
       <c r="D23" s="4"/>
       <c r="F23" s="4"/>
     </row>
@@ -4133,19 +4134,19 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="75" t="s">
         <v>45</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F24" s="78" t="s">
         <v>61</v>
       </c>
       <c r="G24">
@@ -4161,7 +4162,7 @@
       <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" s="40" t="s">
+      <c r="O24" s="39" t="s">
         <v>89</v>
       </c>
       <c r="P24">
@@ -4181,19 +4182,19 @@
       <c r="C25" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="78" t="s">
         <v>62</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
-      <c r="O25" s="40" t="s">
+      <c r="O25" s="39" t="s">
         <v>90</v>
       </c>
       <c r="P25">
@@ -4213,19 +4214,19 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="75" t="s">
         <v>47</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="75" t="s">
         <v>156</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
-      <c r="O26" s="40" t="s">
+      <c r="O26" s="39" t="s">
         <v>91</v>
       </c>
       <c r="P26">
@@ -4239,19 +4240,19 @@
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="75" t="s">
         <v>157</v>
       </c>
       <c r="N27">
         <v>4</v>
       </c>
-      <c r="O27" s="50" t="s">
+      <c r="O27" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4259,13 +4260,13 @@
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="75" t="s">
         <v>49</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="75" t="s">
         <v>152</v>
       </c>
       <c r="G28" t="s">
@@ -4274,7 +4275,7 @@
       <c r="N28">
         <v>5</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="39" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4282,19 +4283,19 @@
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>50</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="75" t="s">
         <v>80</v>
       </c>
       <c r="N29">
         <v>6</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="39" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4302,19 +4303,19 @@
       <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="75" t="s">
         <v>51</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="75" t="s">
         <v>121</v>
       </c>
       <c r="N30">
         <v>7</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="39" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4322,19 +4323,19 @@
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="75" t="s">
         <v>71</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="75" t="s">
         <v>120</v>
       </c>
       <c r="N31">
         <v>8</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="39" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4342,19 +4343,19 @@
       <c r="C32">
         <v>9</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="75" t="s">
         <v>72</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="75" t="s">
         <v>82</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="39" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4362,27 +4363,27 @@
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="76" t="s">
         <v>70</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
-      <c r="F33" s="45" t="s">
-        <v>81</v>
+      <c r="F33" s="75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>11</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="76" t="s">
         <v>150</v>
       </c>
       <c r="E34">
         <v>11</v>
       </c>
-      <c r="F34" s="50"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D35" s="37"/>
@@ -4391,7 +4392,7 @@
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -4400,10 +4401,10 @@
       <c r="H36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
       <c r="O36" s="6" t="s">
         <v>64</v>
       </c>
@@ -4423,19 +4424,19 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="74" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="75" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="74" t="s">
         <v>74</v>
       </c>
       <c r="G38">
@@ -4447,7 +4448,7 @@
       <c r="N38">
         <v>1</v>
       </c>
-      <c r="O38" s="40" t="s">
+      <c r="O38" s="39" t="s">
         <v>63</v>
       </c>
       <c r="P38">
@@ -4467,13 +4468,13 @@
       <c r="C39" s="38">
         <v>8</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="74" t="s">
         <v>54</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>77</v>
       </c>
       <c r="G39">
@@ -4485,7 +4486,7 @@
       <c r="N39">
         <v>2</v>
       </c>
-      <c r="O39" s="40" t="s">
+      <c r="O39" s="39" t="s">
         <v>88</v>
       </c>
       <c r="P39">
@@ -4505,26 +4506,26 @@
       <c r="C40" s="38">
         <v>9</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="74" t="s">
         <v>55</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="41" t="s">
         <v>78</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="49" t="s">
+      <c r="M40" s="48" t="s">
         <v>44</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
-      <c r="O40" s="40" t="s">
+      <c r="O40" s="39" t="s">
         <v>88</v>
       </c>
       <c r="P40">
@@ -4538,19 +4539,19 @@
       <c r="C41" s="38">
         <v>10</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="75" t="s">
         <v>69</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="45" t="s">
         <v>40</v>
       </c>
       <c r="N41" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="O41" s="40" t="s">
+      <c r="O41" s="39" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4558,13 +4559,13 @@
       <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="74" t="s">
         <v>149</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="75" t="s">
+      <c r="F42" s="74" t="s">
         <v>153</v>
       </c>
       <c r="G42" t="s">
@@ -4575,7 +4576,7 @@
       <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="74" t="s">
         <v>154</v>
       </c>
       <c r="Q43" s="2" t="s">
@@ -4586,7 +4587,7 @@
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="74" t="s">
         <v>155</v>
       </c>
       <c r="Q44" s="2" t="s">
@@ -4597,7 +4598,7 @@
       <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="76" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4605,7 +4606,7 @@
       <c r="E46">
         <v>9</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="42" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4613,7 +4614,7 @@
       <c r="E47">
         <v>10</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="44" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4621,7 +4622,7 @@
       <c r="E48">
         <v>11</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="45" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4796,12 +4797,12 @@
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -4874,40 +4875,40 @@
       <c r="A1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="67" t="s">
+      <c r="S3" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="V3" s="70" t="s">
+      <c r="V3" s="69" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4954,7 +4955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5013,7 +5014,7 @@
       <c r="A9" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>140</v>
       </c>
     </row>
